--- a/tabs/Arch-test.xlsx
+++ b/tabs/Arch-test.xlsx
@@ -393,7 +393,7 @@
         <v>1253.022816625543</v>
       </c>
       <c r="C3">
-        <v>8.119934394153079e-273</v>
+        <v>8.119934394151232e-273</v>
       </c>
     </row>
     <row r="4">

--- a/tabs/Arch-test.xlsx
+++ b/tabs/Arch-test.xlsx
@@ -379,10 +379,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>568.5250003235864</v>
+        <v>597.3833003509309</v>
       </c>
       <c r="C2">
-        <v>1.175356136424853e-125</v>
+        <v>6.208033955355882e-132</v>
       </c>
     </row>
     <row r="3">
@@ -390,10 +390,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1253.022816625543</v>
+        <v>1234.636615646796</v>
       </c>
       <c r="C3">
-        <v>8.119934394151232e-273</v>
+        <v>7.981147451186731e-269</v>
       </c>
     </row>
     <row r="4">
@@ -401,10 +401,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1298.284949709394</v>
+        <v>1280.381210850286</v>
       </c>
       <c r="C4">
-        <v>3.467084310713814e-281</v>
+        <v>2.658895079388779e-277</v>
       </c>
     </row>
     <row r="5">
@@ -412,10 +412,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1313.699097353568</v>
+        <v>1293.262699148995</v>
       </c>
       <c r="C5">
-        <v>3.564446906130503e-283</v>
+        <v>9.613929153312131e-279</v>
       </c>
     </row>
     <row r="6">
@@ -423,10 +423,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1359.33354088984</v>
+        <v>1326.619839775552</v>
       </c>
       <c r="C6">
-        <v>8.917395696205195e-292</v>
+        <v>1.091647128264461e-284</v>
       </c>
     </row>
   </sheetData>

--- a/tabs/Arch-test.xlsx
+++ b/tabs/Arch-test.xlsx
@@ -379,10 +379,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>597.3833003509309</v>
+        <v>596.6482239234473</v>
       </c>
       <c r="C2">
-        <v>6.208033955355882e-132</v>
+        <v>8.970990078831722e-132</v>
       </c>
     </row>
     <row r="3">
@@ -390,10 +390,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1234.636615646796</v>
+        <v>1232.966694481648</v>
       </c>
       <c r="C3">
-        <v>7.981147451186731e-269</v>
+        <v>1.839433569528718e-268</v>
       </c>
     </row>
     <row r="4">
@@ -401,10 +401,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1280.381210850286</v>
+        <v>1278.540575083478</v>
       </c>
       <c r="C4">
-        <v>2.658895079388779e-277</v>
+        <v>6.669269652426352e-277</v>
       </c>
     </row>
     <row r="5">
@@ -412,10 +412,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1293.262699148995</v>
+        <v>1291.314134549284</v>
       </c>
       <c r="C5">
-        <v>9.613929153312131e-279</v>
+        <v>2.543153118947856e-278</v>
       </c>
     </row>
     <row r="6">
@@ -423,10 +423,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1326.619839775552</v>
+        <v>1324.658609453612</v>
       </c>
       <c r="C6">
-        <v>1.091647128264461e-284</v>
+        <v>2.903993906064241e-284</v>
       </c>
     </row>
   </sheetData>
